--- a/XC-comparisons/und_E-DAT_comparison.xlsx
+++ b/XC-comparisons/und_E-DAT_comparison.xlsx
@@ -2500,7 +2500,7 @@
         <v>-79</v>
       </c>
       <c r="B73">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>-58</v>
       </c>
       <c r="B94">
-        <v>-0.00100000000000477</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>-48</v>
       </c>
       <c r="B104">
-        <v>-0.000999999999990564</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3457,7 +3457,7 @@
         <v>-46</v>
       </c>
       <c r="B106">
-        <v>-0.00100000000001899</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>-44</v>
       </c>
       <c r="B108">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>-41</v>
       </c>
       <c r="B111">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>-35</v>
       </c>
       <c r="B117">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>-2.8421709430404e-14</v>
@@ -3950,7 +3950,7 @@
         <v>-29</v>
       </c>
       <c r="B123">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>-0.0010000000000332</v>
+        <v>-2.8421709430404e-14</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>-0.00900000000000034</v>
+        <v>-0.00799999999999912</v>
       </c>
       <c r="G136">
         <v>-0.0080000000000009</v>
@@ -4530,7 +4530,7 @@
         <v>-9</v>
       </c>
       <c r="B143">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-5.6843418860808e-14</v>
@@ -4704,7 +4704,7 @@
         <v>-3</v>
       </c>
       <c r="B149">
-        <v>-0.000999999999976353</v>
+        <v>5.6843418860808e-14</v>
       </c>
       <c r="C149">
         <v>-5.6843418860808e-14</v>
@@ -5081,7 +5081,7 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>-0.0010000000000332</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>5.6843418860808e-14</v>
@@ -5110,7 +5110,7 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -5168,7 +5168,7 @@
         <v>13</v>
       </c>
       <c r="B165">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>-2.8421709430404e-14</v>
@@ -5458,7 +5458,7 @@
         <v>23</v>
       </c>
       <c r="B175">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -5516,7 +5516,7 @@
         <v>25</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -5603,7 +5603,7 @@
         <v>28</v>
       </c>
       <c r="B180">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -5661,7 +5661,7 @@
         <v>30</v>
       </c>
       <c r="B182">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>2.8421709430404e-14</v>
@@ -5835,7 +5835,7 @@
         <v>36</v>
       </c>
       <c r="B188">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>37</v>
       </c>
       <c r="B189">
-        <v>-0.00100000000000477</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C189">
         <v>1.4210854715202e-14</v>
@@ -6096,7 +6096,7 @@
         <v>45</v>
       </c>
       <c r="B197">
-        <v>-0.00100000000000477</v>
+        <v>-1.4210854715202e-14</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -6357,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="B206">
-        <v>-0.00100000000000477</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -6531,7 +6531,7 @@
         <v>60</v>
       </c>
       <c r="B212">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C212">
         <v>7.105427357601e-15</v>
@@ -7111,7 +7111,7 @@
         <v>80</v>
       </c>
       <c r="B232">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>82</v>
       </c>
       <c r="B234">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -8590,7 +8590,7 @@
         <v>131</v>
       </c>
       <c r="B283">
-        <v>-0.000999999999999446</v>
+        <v>0</v>
       </c>
       <c r="C283">
         <v>1.77635683940025e-15</v>
@@ -9112,7 +9112,7 @@
         <v>149</v>
       </c>
       <c r="B301">
-        <v>-0.00100000000000122</v>
+        <v>-1.77635683940025e-15</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>-79</v>
       </c>
       <c r="B73">
-        <v>36.383</v>
+        <v>36.384</v>
       </c>
       <c r="C73">
         <v>37.791</v>
@@ -20651,7 +20651,7 @@
         <v>-58</v>
       </c>
       <c r="B94">
-        <v>63.052</v>
+        <v>63.053</v>
       </c>
       <c r="C94">
         <v>66.982</v>
@@ -20941,7 +20941,7 @@
         <v>-48</v>
       </c>
       <c r="B104">
-        <v>86.253</v>
+        <v>86.254</v>
       </c>
       <c r="C104">
         <v>93.118</v>
@@ -20999,7 +20999,7 @@
         <v>-46</v>
       </c>
       <c r="B106">
-        <v>92.246</v>
+        <v>92.247</v>
       </c>
       <c r="C106">
         <v>99.962</v>
@@ -21057,7 +21057,7 @@
         <v>-44</v>
       </c>
       <c r="B108">
-        <v>98.803</v>
+        <v>98.804</v>
       </c>
       <c r="C108">
         <v>107.49</v>
@@ -21144,7 +21144,7 @@
         <v>-41</v>
       </c>
       <c r="B111">
-        <v>109.82</v>
+        <v>109.821</v>
       </c>
       <c r="C111">
         <v>120.229</v>
@@ -21318,7 +21318,7 @@
         <v>-35</v>
       </c>
       <c r="B117">
-        <v>136.812</v>
+        <v>136.813</v>
       </c>
       <c r="C117">
         <v>151.926</v>
@@ -21492,7 +21492,7 @@
         <v>-29</v>
       </c>
       <c r="B123">
-        <v>171.356</v>
+        <v>171.357</v>
       </c>
       <c r="C123">
         <v>193.649</v>
@@ -21521,7 +21521,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>177.843</v>
+        <v>177.844</v>
       </c>
       <c r="C124">
         <v>201.667</v>
@@ -21881,7 +21881,7 @@
         <v>220.692</v>
       </c>
       <c r="F136">
-        <v>14.347</v>
+        <v>14.348</v>
       </c>
       <c r="G136">
         <v>14.437</v>
@@ -22072,7 +22072,7 @@
         <v>-9</v>
       </c>
       <c r="B143">
-        <v>274.521</v>
+        <v>274.522</v>
       </c>
       <c r="C143">
         <v>359.388</v>
@@ -22246,7 +22246,7 @@
         <v>-3</v>
       </c>
       <c r="B149">
-        <v>290.522</v>
+        <v>290.523</v>
       </c>
       <c r="C149">
         <v>366.073</v>
@@ -22623,7 +22623,7 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>277.659</v>
+        <v>277.66</v>
       </c>
       <c r="C162">
         <v>289.706</v>
@@ -22652,7 +22652,7 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>270.149</v>
+        <v>270.15</v>
       </c>
       <c r="C163">
         <v>279.66</v>
@@ -22710,7 +22710,7 @@
         <v>13</v>
       </c>
       <c r="B165">
-        <v>253.506</v>
+        <v>253.507</v>
       </c>
       <c r="C165">
         <v>259.017</v>
@@ -22884,7 +22884,7 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>199.916</v>
+        <v>199.917</v>
       </c>
       <c r="C171">
         <v>200.164</v>
@@ -23000,7 +23000,7 @@
         <v>23</v>
       </c>
       <c r="B175">
-        <v>168.249</v>
+        <v>168.25</v>
       </c>
       <c r="C175">
         <v>168.416</v>
@@ -23058,7 +23058,7 @@
         <v>25</v>
       </c>
       <c r="B177">
-        <v>154.595</v>
+        <v>154.596</v>
       </c>
       <c r="C177">
         <v>155.173</v>
@@ -23145,7 +23145,7 @@
         <v>28</v>
       </c>
       <c r="B180">
-        <v>136.893</v>
+        <v>136.894</v>
       </c>
       <c r="C180">
         <v>138.257</v>
@@ -23203,7 +23203,7 @@
         <v>30</v>
       </c>
       <c r="B182">
-        <v>126.805</v>
+        <v>126.806</v>
       </c>
       <c r="C182">
         <v>128.663</v>
@@ -23377,7 +23377,7 @@
         <v>36</v>
       </c>
       <c r="B188">
-        <v>103.132</v>
+        <v>103.133</v>
       </c>
       <c r="C188">
         <v>105.816</v>
@@ -23406,7 +23406,7 @@
         <v>37</v>
       </c>
       <c r="B189">
-        <v>99.941</v>
+        <v>99.942</v>
       </c>
       <c r="C189">
         <v>102.658</v>
@@ -23638,7 +23638,7 @@
         <v>45</v>
       </c>
       <c r="B197">
-        <v>79.337</v>
+        <v>79.338</v>
       </c>
       <c r="C197">
         <v>81.669</v>
@@ -23899,7 +23899,7 @@
         <v>54</v>
       </c>
       <c r="B206">
-        <v>62.662</v>
+        <v>62.663</v>
       </c>
       <c r="C206">
         <v>64.207</v>
@@ -24073,7 +24073,7 @@
         <v>60</v>
       </c>
       <c r="B212">
-        <v>53.949</v>
+        <v>53.95</v>
       </c>
       <c r="C212">
         <v>55.084</v>
@@ -24653,7 +24653,7 @@
         <v>80</v>
       </c>
       <c r="B232">
-        <v>34.12</v>
+        <v>34.121</v>
       </c>
       <c r="C232">
         <v>34.55</v>
@@ -24711,7 +24711,7 @@
         <v>82</v>
       </c>
       <c r="B234">
-        <v>32.71</v>
+        <v>32.711</v>
       </c>
       <c r="C234">
         <v>33.103</v>
@@ -26132,7 +26132,7 @@
         <v>131</v>
       </c>
       <c r="B283">
-        <v>13.909</v>
+        <v>13.91</v>
       </c>
       <c r="C283">
         <v>13.976</v>
@@ -26654,7 +26654,7 @@
         <v>149</v>
       </c>
       <c r="B301">
-        <v>10.868</v>
+        <v>10.869</v>
       </c>
       <c r="C301">
         <v>10.908</v>
@@ -28813,7 +28813,7 @@
         <v>-79</v>
       </c>
       <c r="B73">
-        <v>-0.00274853640435827</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -29422,7 +29422,7 @@
         <v>-58</v>
       </c>
       <c r="B94">
-        <v>-0.00158599251412291</v>
+        <v>-1.12689758736317e-14</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>-48</v>
       </c>
       <c r="B104">
-        <v>-0.00115937996358453</v>
+        <v>1.64755892076912e-14</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>-46</v>
       </c>
       <c r="B106">
-        <v>-0.00108405784534721</v>
+        <v>-1.54052215412989e-14</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -29828,7 +29828,7 @@
         <v>-44</v>
       </c>
       <c r="B108">
-        <v>-0.00101211501675534</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -29915,7 +29915,7 @@
         <v>-41</v>
       </c>
       <c r="B111">
-        <v>-0.00091058095065086</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -30089,7 +30089,7 @@
         <v>-35</v>
       </c>
       <c r="B117">
-        <v>-0.000730930035359729</v>
+        <v>0</v>
       </c>
       <c r="C117">
         <v>-1.87076006940247e-14</v>
@@ -30263,7 +30263,7 @@
         <v>-29</v>
       </c>
       <c r="B123">
-        <v>-0.000583580382364653</v>
+        <v>0</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -30292,7 +30292,7 @@
         <v>-28</v>
       </c>
       <c r="B124">
-        <v>-0.000562293708514362</v>
+        <v>-1.59812585357977e-14</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -30652,7 +30652,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>-0.0627308845054739</v>
+        <v>-0.0557568999163585</v>
       </c>
       <c r="G136">
         <v>-0.0554131744822394</v>
@@ -30843,7 +30843,7 @@
         <v>-9</v>
       </c>
       <c r="B143">
-        <v>-0.000364270857229994</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>-1.58167270083609e-14</v>
@@ -31017,7 +31017,7 @@
         <v>-3</v>
       </c>
       <c r="B149">
-        <v>-0.000344208011777543</v>
+        <v>1.95658928418087e-14</v>
       </c>
       <c r="C149">
         <v>-1.5527891666637e-14</v>
@@ -31394,7 +31394,7 @@
         <v>10</v>
       </c>
       <c r="B162">
-        <v>-0.000360154001863147</v>
+        <v>0</v>
       </c>
       <c r="C162">
         <v>1.96210706236005e-14</v>
@@ -31423,7 +31423,7 @@
         <v>11</v>
       </c>
       <c r="B163">
-        <v>-0.000370166093517412</v>
+        <v>0</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -31481,7 +31481,7 @@
         <v>13</v>
       </c>
       <c r="B165">
-        <v>-0.000394467981035863</v>
+        <v>0</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -31655,7 +31655,7 @@
         <v>19</v>
       </c>
       <c r="B171">
-        <v>-0.000500210088239448</v>
+        <v>0</v>
       </c>
       <c r="C171">
         <v>-1.41992113618853e-14</v>
@@ -31771,7 +31771,7 @@
         <v>23</v>
       </c>
       <c r="B175">
-        <v>-0.00059435717300238</v>
+        <v>0</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -31829,7 +31829,7 @@
         <v>25</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>0.000646847266426541</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -31916,7 +31916,7 @@
         <v>28</v>
       </c>
       <c r="B180">
-        <v>-0.00073049754187926</v>
+        <v>0</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -31974,7 +31974,7 @@
         <v>30</v>
       </c>
       <c r="B182">
-        <v>-0.000788612436410681</v>
+        <v>0</v>
       </c>
       <c r="C182">
         <v>2.20900409833472e-14</v>
@@ -32148,7 +32148,7 @@
         <v>36</v>
       </c>
       <c r="B188">
-        <v>-0.000969631152300512</v>
+        <v>0</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -32177,7 +32177,7 @@
         <v>37</v>
       </c>
       <c r="B189">
-        <v>-0.00100059034831028</v>
+        <v>-1.42191017942427e-14</v>
       </c>
       <c r="C189">
         <v>1.38429101630677e-14</v>
@@ -32409,7 +32409,7 @@
         <v>45</v>
       </c>
       <c r="B197">
-        <v>-0.00126044594578163</v>
+        <v>-1.79117884433714e-14</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -32670,7 +32670,7 @@
         <v>54</v>
       </c>
       <c r="B206">
-        <v>-0.00159586352175924</v>
+        <v>-1.13391113697094e-14</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -32844,7 +32844,7 @@
         <v>60</v>
       </c>
       <c r="B212">
-        <v>-0.00185360247642176</v>
+        <v>0</v>
       </c>
       <c r="C212">
         <v>1.28992581468321e-14</v>
@@ -33424,7 +33424,7 @@
         <v>80</v>
       </c>
       <c r="B232">
-        <v>-0.00293083235640321</v>
+        <v>0</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -33482,7 +33482,7 @@
         <v>82</v>
       </c>
       <c r="B234">
-        <v>-0.00305716906144197</v>
+        <v>0</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -34903,7 +34903,7 @@
         <v>131</v>
       </c>
       <c r="B283">
-        <v>-0.00718958947443702</v>
+        <v>0</v>
       </c>
       <c r="C283">
         <v>1.27100517987997e-14</v>
@@ -35425,7 +35425,7 @@
         <v>149</v>
       </c>
       <c r="B301">
-        <v>-0.00920132499080992</v>
+        <v>-1.63433327757866e-14</v>
       </c>
       <c r="C301">
         <v>0</v>

--- a/XC-comparisons/und_E-DAT_comparison.xlsx
+++ b/XC-comparisons/und_E-DAT_comparison.xlsx
@@ -4588,7 +4588,7 @@
         <v>-7</v>
       </c>
       <c r="B145">
-        <v>-0.000999999999976353</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>0.00100000000000477</v>
       </c>
       <c r="C174">
         <v>-2.8421709430404e-14</v>
@@ -22130,7 +22130,7 @@
         <v>-7</v>
       </c>
       <c r="B145">
-        <v>275.999</v>
+        <v>276</v>
       </c>
       <c r="C145">
         <v>365.103</v>
@@ -22971,7 +22971,7 @@
         <v>22</v>
       </c>
       <c r="B174">
-        <v>175.641</v>
+        <v>175.642</v>
       </c>
       <c r="C174">
         <v>175.684</v>
@@ -30901,7 +30901,7 @@
         <v>-7</v>
       </c>
       <c r="B145">
-        <v>-0.000362320153325321</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -31742,7 +31742,7 @@
         <v>22</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>0.000569339907314182</v>
       </c>
       <c r="C174">
         <v>-1.61777449457002e-14</v>
